--- a/October 2018/Weekend_Weekday/Validation/Valid_October2018(Hourly).xlsx
+++ b/October 2018/Weekend_Weekday/Validation/Valid_October2018(Hourly).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\October 2018\Weekend_Weekday\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245A3C0D-C4AA-4F12-B78E-F64D9A2AD617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B57D3F-E8A1-4F5F-A447-BA1C0B442732}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{3D1041DD-6381-46B9-8923-20CA3256C8F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{B06C591C-DB3B-4AD2-8EAB-4301D1D494B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="6" r:id="rId1"/>
@@ -621,7 +621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4571250F-0662-4A39-8B46-07F9B5E2611C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C334611-F7E7-476A-9541-57620FF3922E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -732,18 +732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="d!A1" display="d" xr:uid="{21A6634D-2C48-4975-801E-FC97E2BB1A01}"/>
-    <hyperlink ref="A3" location="EnergyRate!A1" display="EnergyRate" xr:uid="{14121B0D-2BC7-46F3-901D-0F29EF4FCA58}"/>
-    <hyperlink ref="A4" location="evap!A1" display="evap" xr:uid="{75224184-1A8D-4913-B120-90ECE43BD8D1}"/>
-    <hyperlink ref="A5" location="Inflow!A1" display="Inflow" xr:uid="{41F6161B-C930-4145-A3E5-D0E4D4CE3374}"/>
-    <hyperlink ref="A6" location="observed_release!A1" display="observed_release" xr:uid="{6ABA68AB-E70D-4629-80CC-B38C3E8134F3}"/>
+    <hyperlink ref="A2" location="d!A1" display="d" xr:uid="{5851C321-1969-4159-BF7F-835BE5DC38F7}"/>
+    <hyperlink ref="A3" location="EnergyRate!A1" display="EnergyRate" xr:uid="{9B8A0A09-BB67-48E6-BC4E-080A0ACC80E4}"/>
+    <hyperlink ref="A4" location="evap!A1" display="evap" xr:uid="{B11E4D96-1A5B-4384-9D39-6C5B873D7923}"/>
+    <hyperlink ref="A5" location="Inflow!A1" display="Inflow" xr:uid="{95575F20-D9E0-4F5B-8D85-DA677E59039B}"/>
+    <hyperlink ref="A6" location="observed_release!A1" display="observed_release" xr:uid="{C158405B-1370-454E-B82A-330E2919B129}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A7C1F8-C4DE-4D62-B3AE-3FA829A8D29F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2D6C23-F8B9-4A86-867E-EB839C8A91FB}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -930,16 +930,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A34" xr:uid="{57ADE533-C58C-43E5-B05D-CBCFC69AEDFD}"/>
+  <autoFilter ref="A3:A34" xr:uid="{0983D2B3-40C7-49C4-85AE-BED6148C0620}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{97E9076F-D5CB-4C3E-A2FD-9EAB5777C528}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FB19965A-8C35-4BC4-A8A0-98271F7AC24C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CB6D66-B70F-4F49-A541-4627125E66F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47835D6-36A9-45B2-8100-ABC4523D9278}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1166,16 +1166,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B27" xr:uid="{4AE7AD3C-95C4-44B1-A341-F5B4CF81C7BD}"/>
+  <autoFilter ref="A3:B27" xr:uid="{DA2FEAC9-B3D4-4374-AAE3-FB9329158B53}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3DF5FD16-E022-4776-84CA-CBAB05D3543C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3CF301CD-49A6-44F7-A0FA-F7D2CF068D08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CF5C2C-4A49-4E7F-9288-B3F7C1D61615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF0712-4540-4797-AF4E-CBC8645D922E}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3592.15</v>
+        <v>986</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1222,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>3592.04</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1230,7 +1230,7 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>3591.91</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1238,7 +1238,7 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>3591.78</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>3591.71</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1254,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>3591.64</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1262,7 +1262,7 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>3591.71</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1270,7 +1270,7 @@
         <v>37</v>
       </c>
       <c r="B11">
-        <v>3591.79</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1278,7 +1278,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>3591.8</v>
+        <v>984</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1286,7 +1286,7 @@
         <v>39</v>
       </c>
       <c r="B13">
-        <v>3591.85</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1294,7 +1294,7 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>3591.96</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1302,7 +1302,7 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>3591.9</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1310,7 +1310,7 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>3591.88</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1318,7 +1318,7 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>3591.87</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1326,7 +1326,7 @@
         <v>44</v>
       </c>
       <c r="B18">
-        <v>3591.74</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1334,7 +1334,7 @@
         <v>45</v>
       </c>
       <c r="B19">
-        <v>3591.64</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1342,7 +1342,7 @@
         <v>46</v>
       </c>
       <c r="B20">
-        <v>3591.61</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1350,7 +1350,7 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>3591.59</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1358,7 +1358,7 @@
         <v>48</v>
       </c>
       <c r="B22">
-        <v>3591.5</v>
+        <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1366,7 +1366,7 @@
         <v>49</v>
       </c>
       <c r="B23">
-        <v>3591.45</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1374,7 +1374,7 @@
         <v>50</v>
       </c>
       <c r="B24">
-        <v>3591.42</v>
+        <v>981</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1382,7 +1382,7 @@
         <v>51</v>
       </c>
       <c r="B25">
-        <v>3591.39</v>
+        <v>981</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1390,7 +1390,7 @@
         <v>52</v>
       </c>
       <c r="B26">
-        <v>3591.24</v>
+        <v>980</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1398,7 +1398,7 @@
         <v>53</v>
       </c>
       <c r="B27">
-        <v>3591.15</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1406,7 +1406,7 @@
         <v>54</v>
       </c>
       <c r="B28">
-        <v>3591.07</v>
+        <v>979</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1414,7 +1414,7 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>3590.96</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1422,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="B30">
-        <v>3590.85</v>
+        <v>978</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1430,7 +1430,7 @@
         <v>57</v>
       </c>
       <c r="B31">
-        <v>3590.78</v>
+        <v>977</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1438,7 +1438,7 @@
         <v>58</v>
       </c>
       <c r="B32">
-        <v>3590.67</v>
+        <v>976</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1446,7 +1446,7 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <v>3590.57</v>
+        <v>976</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1454,20 +1454,20 @@
         <v>60</v>
       </c>
       <c r="B34">
-        <v>3590.46</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{B0CAF5B9-D081-4B24-8767-EB83A68D703D}"/>
+  <autoFilter ref="A3:B34" xr:uid="{48FE042B-55B1-446E-B225-FA1597759D90}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{61967698-94D8-4880-A6DD-994C0A479F02}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CEB94F4F-77EF-48D6-B65C-A8A97C911432}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8F672E-08EE-4503-B637-760A3300E5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD60D46F-56A0-4D4C-996D-84F64C1D86D8}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1506,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>986</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1514,7 +1514,7 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>986</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1522,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="B6">
-        <v>985</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1530,7 +1530,7 @@
         <v>33</v>
       </c>
       <c r="B7">
-        <v>984</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1538,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>983</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1546,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>983</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1554,7 +1554,7 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>983</v>
+        <v>13082</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="B11">
-        <v>984</v>
+        <v>14844</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1570,7 +1570,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>984</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1578,7 +1578,7 @@
         <v>39</v>
       </c>
       <c r="B13">
-        <v>984</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1586,7 +1586,7 @@
         <v>40</v>
       </c>
       <c r="B14">
-        <v>985</v>
+        <v>16356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1594,7 +1594,7 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>985</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -1602,7 +1602,7 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>985</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1610,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="B17">
-        <v>984</v>
+        <v>8960</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1618,7 +1618,7 @@
         <v>44</v>
       </c>
       <c r="B18">
-        <v>984</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1626,7 +1626,7 @@
         <v>45</v>
       </c>
       <c r="B19">
-        <v>983</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1634,7 +1634,7 @@
         <v>46</v>
       </c>
       <c r="B20">
-        <v>983</v>
+        <v>9247</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1642,7 +1642,7 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <v>983</v>
+        <v>9919</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1650,7 +1650,7 @@
         <v>48</v>
       </c>
       <c r="B22">
-        <v>982</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1658,7 +1658,7 @@
         <v>49</v>
       </c>
       <c r="B23">
-        <v>982</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1666,7 +1666,7 @@
         <v>50</v>
       </c>
       <c r="B24">
-        <v>981</v>
+        <v>8163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1674,7 +1674,7 @@
         <v>51</v>
       </c>
       <c r="B25">
-        <v>981</v>
+        <v>9233</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1682,7 +1682,7 @@
         <v>52</v>
       </c>
       <c r="B26">
-        <v>980</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1690,7 +1690,7 @@
         <v>53</v>
       </c>
       <c r="B27">
-        <v>980</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1698,7 +1698,7 @@
         <v>54</v>
       </c>
       <c r="B28">
-        <v>979</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1706,7 +1706,7 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>978</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1714,7 +1714,7 @@
         <v>56</v>
       </c>
       <c r="B30">
-        <v>978</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1722,7 +1722,7 @@
         <v>57</v>
       </c>
       <c r="B31">
-        <v>977</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1730,7 +1730,7 @@
         <v>58</v>
       </c>
       <c r="B32">
-        <v>976</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1738,7 +1738,7 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <v>976</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1746,20 +1746,20 @@
         <v>60</v>
       </c>
       <c r="B34">
-        <v>975</v>
+        <v>5572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B34" xr:uid="{2FC1766D-4246-4509-8C7E-B824BDE07A59}"/>
+  <autoFilter ref="A3:B34" xr:uid="{FBDCA1E4-A894-4336-AA30-EE2A80C223AA}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{10929EC7-E582-4732-9F09-CE737FAA60B6}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F65DF92A-5809-4A4B-A22A-080B69BD8340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54C8A0A-B36B-45E2-96FA-325867A84D56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA0CCEB-D1EC-4338-A5DD-FD8F1E2CF7E4}">
   <dimension ref="A1:C747"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9981,9 +9981,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C747" xr:uid="{385021E5-2DBC-4554-9330-9BDA04077B0C}"/>
+  <autoFilter ref="A3:C747" xr:uid="{73DC0822-9E39-48AC-8C98-29EF408BF409}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9DB4F188-893E-4B65-9F90-615EEC208CB9}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5586B9E6-35CD-4120-AD77-A21193B79B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
